--- a/doc/04_機能一覧_KSHMY.xlsx
+++ b/doc/04_機能一覧_KSHMY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1DEC6D-9A00-43B7-8882-B2ED428AC225}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5B9B33-9F0F-4A22-8C63-86B6FF9E686A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -352,9 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入りのお店をブックマーク</t>
-  </si>
-  <si>
     <t>編集</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
@@ -396,16 +393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グルメの表示機能</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本日の予定表示機能</t>
     <rPh sb="0" eb="2">
       <t>ホンジツ</t>
@@ -450,9 +437,6 @@
     <t>グルメ検索機能</t>
   </si>
   <si>
-    <t>WG02</t>
-  </si>
-  <si>
     <t>ジャンルチェックリスト形式、お気に入り絞り込み、キーワード検索が可能</t>
   </si>
   <si>
@@ -462,9 +446,6 @@
     <t>グルメ一覧並び替え</t>
   </si>
   <si>
-    <t>WG03</t>
-  </si>
-  <si>
     <t>登録した4項目（ジャンル・店名・営業所・評価）から降順昇順選択可能</t>
   </si>
   <si>
@@ -475,10 +456,6 @@
   </si>
   <si>
     <t>WT01</t>
-  </si>
-  <si>
-    <t>ユーザ所属地の今日明日の天気と気温をメインページで表示
-どのような情報が取れるのか確認</t>
   </si>
   <si>
     <t>激励メッセージ表示機能</t>
@@ -569,9 +546,6 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索結果（本社から目的地までのルート）を表示（グーグルの機能）</t>
   </si>
   <si>
     <t>グルメ登録機能</t>
@@ -700,6 +674,51 @@
   </si>
   <si>
     <t>カレンダーの表示機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りのお店を☆で登録</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果（本社から目的地までのルート）を表示（グーグルの機能）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WGH02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WGH01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ所属地の今日明日の天気と気温をメインページで表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルメ表示機能</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WGH03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -796,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,29 +840,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1207,8 +1208,8 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E3" s="4" t="s">
@@ -1218,22 +1219,22 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1281,7 +1282,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>18</v>
@@ -1297,7 +1298,7 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="2"/>
@@ -1305,7 +1306,7 @@
         <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>22</v>
@@ -1329,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>31</v>
@@ -1353,7 +1354,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>32</v>
@@ -1377,10 +1378,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
@@ -1401,7 +1402,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>34</v>
@@ -1425,7 +1426,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
@@ -1438,143 +1439,143 @@
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>62</v>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>62</v>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>62</v>
+      <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>62</v>
+      <c r="D18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="117" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>62</v>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>14</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="s">
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="G20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1582,23 +1583,23 @@
       <c r="B21" s="2">
         <v>15</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="s">
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1606,23 +1607,23 @@
       <c r="B22" s="2">
         <v>16</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
+      <c r="D22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1630,23 +1631,23 @@
       <c r="B23" s="2">
         <v>17</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="s">
+      <c r="D23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1654,143 +1655,143 @@
       <c r="B24" s="2">
         <v>18</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
+      <c r="I24" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>19</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="39" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>20</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="12" t="s">
+      <c r="D26" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="39" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>21</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>62</v>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>22</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>62</v>
+      <c r="H28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="26" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>23</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="11" t="s">
+      <c r="G29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1798,23 +1799,23 @@
       <c r="B30" s="2">
         <v>24</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H30" s="11" t="s">
+      <c r="G30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1822,23 +1823,23 @@
       <c r="B31" s="2">
         <v>25</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="11" t="s">
+      <c r="G31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1846,23 +1847,23 @@
       <c r="B32" s="2">
         <v>26</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1870,21 +1871,21 @@
       <c r="B33" s="2">
         <v>27</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
+      <c r="D33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="10" t="s">
+      <c r="G33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1892,13 +1893,13 @@
       <c r="B34" s="2">
         <v>28</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="10" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1906,13 +1907,13 @@
       <c r="B35" s="2">
         <v>29</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="10" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
